--- a/data/performance_sheets_option3_flatten/window1/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3_flatten/window1/BA47 Overall Model Peformance Results.xlsx
@@ -894,19 +894,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.174112410629967</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.08656660991536</v>
+        <v>31.77616228482158</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.174112410629967</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.08656660991536</v>
+        <v>31.77616228482158</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -1018,19 +1018,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05271346107426658</v>
+        <v>0.0460609357427142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1788375707010083</v>
+        <v>0.1560473741409697</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.335650476974534</v>
+        <v>0.4880581089825261</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2295941224732606</v>
+        <v>0.214618116063659</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>27.93833242701672</v>
+        <v>28.34060671322362</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -1048,19 +1048,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.05303317521058963</v>
+        <v>0.0459754524184587</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1790556379040789</v>
+        <v>0.1557917264915365</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.33625437103495</v>
+        <v>0.4871610091504897</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2302893293459114</v>
+        <v>0.2144188714140122</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>27.96232385415919</v>
+        <v>28.29984645258629</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -1596,19 +1596,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05143339393455053</v>
+        <v>0.0383476728912777</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1783607595846264</v>
+        <v>0.1467124854596596</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3397093524006813</v>
+        <v>0.4468170937801868</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2267893161825542</v>
+        <v>0.1958256185775439</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>27.83426830938579</v>
+        <v>27.15696700000545</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -1626,19 +1626,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.04802108267756257</v>
+        <v>0.0369177207361103</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1740254908250595</v>
+        <v>0.1442899511086944</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3432874963377202</v>
+        <v>0.4103907390159572</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2191371321286344</v>
+        <v>0.1921398468202532</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>27.07107992967986</v>
+        <v>26.57452367009161</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0350835807621479</v>
+        <v>0.035083573</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1359982490539551</v>
+        <v>0.13599823</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5698747038841248</v>
+        <v>0.5698747</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1873061151221388</v>
+        <v>0.1873060952333567</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>25.00773668289185</v>
@@ -1770,19 +1770,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05780286714434624</v>
+        <v>0.057802826</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1909218281507492</v>
+        <v>0.19092177</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5724933743476868</v>
+        <v>0.5724928</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2404222684036282</v>
+        <v>0.2404221831823198</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>34.68216955661774</v>
+        <v>34.68216061592102</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -1802,19 +1802,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01899948343634605</v>
+        <v>0.019000283</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1121307387948036</v>
+        <v>0.11213203</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1463086903095245</v>
+        <v>0.14631039</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1378386137348532</v>
+        <v>0.1378415122926148</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.24604856967926</v>
+        <v>15.24630188941956</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -1832,16 +1832,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01993242278695107</v>
+        <v>0.019932417</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1108256950974464</v>
+        <v>0.11082568</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1503388583660126</v>
+        <v>0.15033886</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1411822325469854</v>
+        <v>0.141182212757187</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>15.47899544239044</v>
@@ -1864,19 +1864,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05130831152200699</v>
+        <v>0.051318157</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1777615994215012</v>
+        <v>0.17778273</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5563365817070007</v>
+        <v>0.55635464</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2265133804480587</v>
+        <v>0.226535113093458</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>31.17064535617828</v>
+        <v>31.1684638261795</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -1894,19 +1894,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04421017318964005</v>
+        <v>0.044381313</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1573771983385086</v>
+        <v>0.15720354</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5323354601860046</v>
+        <v>0.5310912</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.210262153488544</v>
+        <v>0.2106687281633213</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>28.93608510494232</v>
+        <v>28.89807224273682</v>
       </c>
     </row>
   </sheetData>
@@ -2209,19 +2209,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -2239,19 +2239,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
     </row>
     <row r="10">
@@ -2333,19 +2333,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1058690561766854</v>
+        <v>0.9444212157375024</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2748929194107205</v>
+        <v>0.8047873601665423</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1439952338375468</v>
+        <v>0.4194160729377199</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3253752544012612</v>
+        <v>0.971813364662939</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.83220631439428</v>
+        <v>38.51295222703874</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -2363,19 +2363,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3751459369575681</v>
+        <v>0.8926932291809264</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5295344178309039</v>
+        <v>0.7877274380754433</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2408797946610647</v>
+        <v>0.4015984005806757</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6124915811319925</v>
+        <v>0.9448244435771792</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>22.65398452481627</v>
+        <v>37.59259541402032</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -2907,23 +2907,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.421219181732121</v>
+        <v>1.619322519399549</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.274985107032606</v>
+        <v>1.177230430619204</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9405355391042554</v>
+        <v>0.4997827446018527</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.534012466767305</v>
+        <v>1.272526038790385</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>138.5690556307291</v>
+        <v>59.27935976634102</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -2937,23 +2937,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.790932168775858</v>
+        <v>0.8873868810015147</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>1.108130311717122</v>
+        <v>0.8399421030828009</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4670903536819721</v>
+        <v>0.3929247589618808</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.338257138511078</v>
+        <v>0.9420121448269734</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>56.09105573780073</v>
+        <v>40.81606710529206</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -3055,19 +3055,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.088932633399963</v>
+        <v>1.0889325</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8076412081718445</v>
+        <v>0.80764115</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5958386063575745</v>
+        <v>0.59583855</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.043519349796621</v>
+        <v>1.043519292677751</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>30.90593814849854</v>
+        <v>30.9059351682663</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -3085,13 +3085,13 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.045949697494507</v>
+        <v>1.0459497</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.8050884008407593</v>
+        <v>0.80508834</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5855247378349304</v>
+        <v>0.58552474</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>1.022716821751997</v>
@@ -3117,19 +3117,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6993260979652405</v>
+        <v>0.6993263</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7055570483207703</v>
+        <v>0.7055573000000001</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2736572325229645</v>
+        <v>0.27365726</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8362571960618578</v>
+        <v>0.836257302975092</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>30.1049143075943</v>
+        <v>30.10492324829102</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3147,19 +3147,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4104393422603607</v>
+        <v>0.41043934</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.561431348323822</v>
+        <v>0.56143135</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2210551500320435</v>
+        <v>0.22105516</v>
       </c>
       <c r="O23" s="8" t="n">
         <v>0.6406554005550571</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>23.23123812675476</v>
+        <v>23.23123961687088</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6552014946937561</v>
+        <v>0.6549363</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5074424147605896</v>
+        <v>0.5071653</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4449597299098969</v>
+        <v>0.44484633</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8094451770773337</v>
+        <v>0.8092813562841729</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>22.04897105693817</v>
+        <v>22.04012721776962</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4191586375236511</v>
+        <v>0.41273013</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.385053813457489</v>
+        <v>0.3966405</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3487833738327026</v>
+        <v>0.34814444</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.6474246191825355</v>
+        <v>0.6424407580259937</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>18.34573298692703</v>
+        <v>18.829345703125</v>
       </c>
     </row>
   </sheetData>
@@ -3521,19 +3521,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -3551,19 +3551,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -3645,19 +3645,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.282627024930985</v>
+        <v>0.6627849371552835</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.414520567851806</v>
+        <v>0.6600199176793536</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1597357950346202</v>
+        <v>0.3091065845999727</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5316267722105283</v>
+        <v>0.8141160464917048</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.36442226505309</v>
+        <v>30.59944833104108</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -3675,19 +3675,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.224253611682609</v>
+        <v>0.6681277983024166</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3966930599017995</v>
+        <v>0.6905831492159208</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1864056431649947</v>
+        <v>0.3200252168902844</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4735542330954386</v>
+        <v>0.8173908479438809</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>16.46934969162959</v>
+        <v>31.92161201610699</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -4219,23 +4219,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.080869872585378</v>
+        <v>0.696161320747963</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.259819029781681</v>
+        <v>0.6927991704276167</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4674999611731502</v>
+        <v>0.3467814615995134</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.442522052720643</v>
+        <v>0.8343628232058059</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>68.58081933214362</v>
+        <v>32.73996540010401</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -4253,19 +4253,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.3015712455541357</v>
+        <v>2.746391347915509</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.4003174722600081</v>
+        <v>1.492313234902874</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2233967143572415</v>
+        <v>0.5468561507160054</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.5491550287069542</v>
+        <v>1.657223988456452</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>17.17193355137638</v>
+        <v>82.47144896011554</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -4367,19 +4367,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6316389441490173</v>
+        <v>0.6316387</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5253673195838928</v>
+        <v>0.5253671</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3989359736442566</v>
+        <v>0.39893594</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7947571604893015</v>
+        <v>0.7947570104946783</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.73071950674057</v>
+        <v>21.73071205615997</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -4397,16 +4397,16 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.9321104288101196</v>
+        <v>0.93211055</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.706903338432312</v>
+        <v>0.7069033</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4902142584323883</v>
+        <v>0.4902143</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.965458662403585</v>
+        <v>0.9654587241407108</v>
       </c>
       <c r="P22" s="8" t="n">
         <v>26.96022093296051</v>
@@ -4429,19 +4429,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5044167637825012</v>
+        <v>0.504417</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5915682315826416</v>
+        <v>0.5915683</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2143493145704269</v>
+        <v>0.21434933</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7102230380538928</v>
+        <v>0.7102232059015534</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>24.12208318710327</v>
+        <v>24.12208765745163</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4459,19 +4459,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1562556177377701</v>
+        <v>0.15625559</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3362798392772675</v>
+        <v>0.33627978</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1207985728979111</v>
+        <v>0.12079856</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3952918133958381</v>
+        <v>0.3952917756992266</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>12.96632140874863</v>
+        <v>12.96631842851639</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4491,19 +4491,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4135783016681671</v>
+        <v>0.41363704</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.487751305103302</v>
+        <v>0.4877899</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3150009512901306</v>
+        <v>0.31502122</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.643100537760751</v>
+        <v>0.6431462058082853</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>21.93512469530106</v>
+        <v>21.9365194439888</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4521,19 +4521,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.7691764235496521</v>
+        <v>0.7688923</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.6427062749862671</v>
+        <v>0.642503</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4499752223491669</v>
+        <v>0.44987035</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.8770270369547635</v>
+        <v>0.8768650342031024</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>25.3189742565155</v>
+        <v>25.31313002109528</v>
       </c>
     </row>
   </sheetData>
@@ -4833,19 +4833,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -4863,19 +4863,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -4953,23 +4953,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2437363377085763</v>
+        <v>0.5559700373471002</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.40428802235733</v>
+        <v>0.6793072097664933</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.164722832000289</v>
+        <v>0.2943247049802319</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4936966049190295</v>
+        <v>0.7456339834980029</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.04217901208391</v>
+        <v>31.19413184532557</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.190190918832977</v>
+        <v>0.9834558861760306</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.359418879473248</v>
+        <v>0.8637971571994341</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1397263019448657</v>
+        <v>0.3770776443694917</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4361088382880781</v>
+        <v>0.9916934436488076</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>14.74377094283517</v>
+        <v>42.00990893009089</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -5531,23 +5531,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.559614899154422</v>
+        <v>9.069488818344782</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.154852612074316</v>
+        <v>2.780428427562325</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4231172704199013</v>
+        <v>1.182608616996711</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.248845426445732</v>
+        <v>3.011559200537951</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>56.49629993625756</v>
+        <v>155.1609141372878</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -5561,23 +5561,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.890515243765543</v>
+        <v>4.188329380229271</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>1.246554238851965</v>
+        <v>1.715111284600262</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4634623507195713</v>
+        <v>0.6454246297129869</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.374960088062756</v>
+        <v>2.046540832778391</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>65.06553922130338</v>
+        <v>98.66895243739911</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -5679,19 +5679,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7865081429481506</v>
+        <v>0.7865083</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7024142146110535</v>
+        <v>0.7024144</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4369731843471527</v>
+        <v>0.43697327</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8868529432482877</v>
+        <v>0.8868530440620278</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>26.5886664390564</v>
+        <v>26.58866941928864</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -5709,19 +5709,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.375683605670929</v>
+        <v>0.3756836</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4412859678268433</v>
+        <v>0.441286</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2972972095012665</v>
+        <v>0.2972972</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.6129303432454042</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>18.90310049057007</v>
+        <v>18.90310347080231</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5741,19 +5741,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.240955114364624</v>
+        <v>0.2409521</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.382420152425766</v>
+        <v>0.38241845</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1310688704252243</v>
+        <v>0.13106838</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4908717901495502</v>
+        <v>0.4908687241310683</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.6370142698288</v>
+        <v>14.63694274425507</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -5771,19 +5771,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.2484280169010162</v>
+        <v>0.24842791</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3969813883304596</v>
+        <v>0.3969813</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1354388892650604</v>
+        <v>0.13543884</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.4984255379703334</v>
+        <v>0.4984254333326981</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>15.12301862239838</v>
+        <v>15.12301415205002</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.12060272693634</v>
+        <v>1.120602</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8809575438499451</v>
+        <v>0.8809562</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5278217792510986</v>
+        <v>0.5278214</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.058585247836158</v>
+        <v>1.058584910000423</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>31.50074481964111</v>
+        <v>31.50070309638977</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5833,19 +5833,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4956477582454681</v>
+        <v>0.49559394</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.6276978850364685</v>
+        <v>0.6276614</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3236044943332672</v>
+        <v>0.3235874</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.7040225552107462</v>
+        <v>0.7039843288392406</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>27.73458659648895</v>
+        <v>27.73298323154449</v>
       </c>
     </row>
   </sheetData>
@@ -6139,23 +6139,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08334434966724366</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2241160520577013</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.983259579222235</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2886942148142974</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>41.56803741635998</v>
+        <v>31.77616228482158</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -6169,23 +6169,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.08331623840142535</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2239670884467085</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.983256339906295</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2886455237855342</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>41.52630468103491</v>
+        <v>31.77616228482158</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -6263,53 +6263,53 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.4522903536205911</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.6428894903758915</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.249154530791193</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6725253553737518</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>157.4155771172778</v>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Stochastic Gradient Descent Regressor</t>
+        </is>
+      </c>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
           <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>0.4092166294135924</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>0.5851805854804721</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>0.9669576870019814</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>0.6397004216143619</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>185.0265945892358</v>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Stochastic Gradient Descent Regressor</t>
-        </is>
-      </c>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K11" s="8" t="inlineStr">
-        <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
-        </is>
-      </c>
       <c r="L11" s="8" t="n">
-        <v>0.4241131909384427</v>
+        <v>0.06341443847447061</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5965876621133337</v>
+        <v>0.203619196739585</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.033344778411077</v>
+        <v>0.378074839120644</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.651239733844951</v>
+        <v>0.2518222358618686</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>187.0492494655881</v>
+        <v>39.36940333709815</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -6845,19 +6845,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07589086679897702</v>
+        <v>0.055525600651622</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2149634039079189</v>
+        <v>0.178654499832511</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.964357206175213</v>
+        <v>0.5018093842139694</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2754829700707052</v>
+        <v>0.2356387078805645</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>40.5433827900623</v>
+        <v>32.79165330377018</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -6871,23 +6871,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.07589086679897702</v>
+        <v>0.0419061799061586</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2149634039079189</v>
+        <v>0.165579130645997</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.964357206175213</v>
+        <v>0.3670919208084798</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2754829700707052</v>
+        <v>0.2047099897566277</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>40.5433827900623</v>
+        <v>30.34084472017985</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -6989,19 +6989,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1020576432347298</v>
+        <v>0.09785816999999999</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2226652950048447</v>
+        <v>0.22187285</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9734535813331604</v>
+        <v>0.9433510000000001</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3194646196916487</v>
+        <v>0.3128229022702098</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>35.33604741096497</v>
+        <v>35.53544282913208</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7019,19 +7019,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0728999525308609</v>
+        <v>0.07289994499999999</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2212715297937393</v>
+        <v>0.22127143</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5698981285095215</v>
+        <v>0.569898</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2699999120941726</v>
+        <v>0.2699998982967962</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>39.51957523822784</v>
+        <v>39.51956629753113</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -7051,19 +7051,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1190300807356834</v>
+        <v>0.1190301</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2640474736690521</v>
+        <v>0.26404756</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4009554386138916</v>
+        <v>0.4009555</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3450073633064712</v>
+        <v>0.345007395699607</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>53.05911898612976</v>
+        <v>53.05913090705872</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7081,19 +7081,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04749364405870438</v>
+        <v>0.047431223</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1531423628330231</v>
+        <v>0.1530283</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2054049968719482</v>
+        <v>0.20526484</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2179303651598473</v>
+        <v>0.2177871049774603</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>24.24179315567017</v>
+        <v>24.22142028808594</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7113,19 +7113,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.161935806274414</v>
+        <v>3.1612</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.459356904029846</v>
+        <v>1.4586084</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.84293270111084</v>
+        <v>4.842582</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.778183288155193</v>
+        <v>1.777976390883554</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>150.2644896507263</v>
+        <v>150.1355171203613</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7143,19 +7143,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.166088730096817</v>
+        <v>0.1664841</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3216412961483002</v>
+        <v>0.32154053</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.6672254204750061</v>
+        <v>0.6655326</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.4075398509309452</v>
+        <v>0.4080246348037988</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>67.30299592018127</v>
+        <v>67.21047759056091</v>
       </c>
     </row>
   </sheetData>
@@ -7449,23 +7449,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1113066078928587</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2159256276245285</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.546747322740567</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3336264496302094</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>37.87053020733035</v>
+        <v>33.70231028308675</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -7479,23 +7479,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1119633256082257</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2230506558821913</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>2.55925377300787</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3346092132745685</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>38.75738131110202</v>
+        <v>33.70231028308675</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -7577,19 +7577,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>57.04727352388323</v>
+        <v>2.528033457233795</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.528044970548156</v>
+        <v>1.333205500822837</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22.67482735245115</v>
+        <v>2.837303646884312</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>7.552964552007591</v>
+        <v>1.589979074464125</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>171.4634630019324</v>
+        <v>137.6182832189764</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -7603,23 +7603,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.321663618152657</v>
+        <v>0.3837929953391023</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.503196279795189</v>
+        <v>0.5781174825258021</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.177408724785653</v>
+        <v>1.215610199975349</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.567153963357973</v>
+        <v>0.6195102867096739</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>126.3753488435417</v>
+        <v>145.1649595346371</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -8151,23 +8151,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07547616361874404</v>
+        <v>0.0388902962096662</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1915471461987928</v>
+        <v>0.1615294748848179</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.2192071335707</v>
+        <v>0.4386135706514804</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2747292551199162</v>
+        <v>0.197206227613801</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>36.39579914374475</v>
+        <v>31.95473885665865</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -8181,23 +8181,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.07444098613751673</v>
+        <v>0.0413303069883857</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1913608481270397</v>
+        <v>0.1593396583326074</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>2.208268829193527</v>
+        <v>0.5211005859097264</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2728387548306082</v>
+        <v>0.2032985661247656</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>36.49516693386032</v>
+        <v>29.9229581392765</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -8299,19 +8299,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05433589592576027</v>
+        <v>0.054336943</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1681354492902756</v>
+        <v>0.16809435</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7468400597572327</v>
+        <v>0.74677896</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2331006133105623</v>
+        <v>0.2331028586961861</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>30.19929528236389</v>
+        <v>30.1910936832428</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8329,19 +8329,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05277438089251518</v>
+        <v>0.052774392</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1917432099580765</v>
+        <v>0.19174325</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4742545187473297</v>
+        <v>0.47425452</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2297267526704611</v>
+        <v>0.2297267769947293</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>39.81034755706787</v>
+        <v>39.81035351753235</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8361,19 +8361,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06316021829843521</v>
+        <v>0.06316036999999999</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.202055424451828</v>
+        <v>0.20205557</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2995458841323853</v>
+        <v>0.299546</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2513169677885582</v>
+        <v>0.2513172642498862</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>35.38211286067963</v>
+        <v>35.38214266300201</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8391,19 +8391,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.2025464028120041</v>
+        <v>0.20254585</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3537090718746185</v>
+        <v>0.35370904</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.5006994605064392</v>
+        <v>0.50070006</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.450051555726679</v>
+        <v>0.4500509431931455</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>76.0824978351593</v>
+        <v>76.08252763748169</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5575.4462890625</v>
+        <v>5579.451</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>56.55258178710938</v>
+        <v>56.579647</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>124.782112121582</v>
+        <v>124.86255</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>74.66891112814288</v>
+        <v>74.69572391961269</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>193.6085343360901</v>
+        <v>193.6219692230225</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.07173672318458557</v>
+        <v>0.0717477</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2184486836194992</v>
+        <v>0.21846262</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.7489336133003235</v>
+        <v>0.7490285</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2678371206248036</v>
+        <v>0.2678576074891375</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>39.32778537273407</v>
+        <v>39.32887017726898</v>
       </c>
     </row>
   </sheetData>
@@ -8759,23 +8759,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'random', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 70, 'max_features': 'log2', 'max_depth': 16, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0744188291555954</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.19449979685454</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.075348777058906</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2727981472730256</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>37.20979386329391</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -8789,23 +8789,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.09018555127184806</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1853385780457864</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>2.554202658213083</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3003090928890567</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>33.59122435340475</v>
+        <v>36.07352887796457</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -8883,23 +8883,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3947416511073883</v>
+        <v>4.861836515771689</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5901225037744507</v>
+        <v>1.833632259086946</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.133653262004279</v>
+        <v>4.153604631501822</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6282846895376237</v>
+        <v>2.204957259397943</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>164.577163830831</v>
+        <v>152.1862846765329</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -8913,23 +8913,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.05535545891899473</v>
+        <v>4.861836515771689</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1587086438421614</v>
+        <v>1.833632259086946</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>2.002738903462764</v>
+        <v>4.153604631501822</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2352774084330978</v>
+        <v>2.204957259397943</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>32.86857705274599</v>
+        <v>152.1862846765329</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -9465,19 +9465,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06974438937763086</v>
+        <v>0.0474673629394224</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1651914926755352</v>
+        <v>0.1653617461124801</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.279905791989298</v>
+        <v>0.4208097522628535</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2640916306466959</v>
+        <v>0.2178700597590739</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>32.91943899776534</v>
+        <v>30.86147323759568</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -9491,23 +9491,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.06134704416653895</v>
+        <v>0.0474673629394224</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1653764913566044</v>
+        <v>0.1653617461124801</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>2.239845319984642</v>
+        <v>0.4208097522628535</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2476833546416451</v>
+        <v>0.2178700597590739</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>32.22622782468478</v>
+        <v>30.86147323759568</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -9609,19 +9609,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06495326012372971</v>
+        <v>0.06499649</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1939430832862854</v>
+        <v>0.19424702</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8042066693305969</v>
+        <v>0.8047081</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2548592947564002</v>
+        <v>0.2549440887574235</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>35.07174551486969</v>
+        <v>35.11636257171631</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9639,19 +9639,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3208040595054626</v>
+        <v>0.31625178</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4315734803676605</v>
+        <v>0.43263242</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.506182909011841</v>
+        <v>1.4914361</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5663956739819458</v>
+        <v>0.5623626806279597</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>72.67199754714966</v>
+        <v>72.60316610336304</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9671,19 +9671,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08181001991033554</v>
+        <v>0.08181000500000001</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.221244752407074</v>
+        <v>0.22124474</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3545253276824951</v>
+        <v>0.35452536</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.286024509282571</v>
+        <v>0.286024483233821</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>40.5301570892334</v>
+        <v>40.53014814853668</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -9701,19 +9701,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1053521260619164</v>
+        <v>0.1053521</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2415359020233154</v>
+        <v>0.24153566</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.4230186939239502</v>
+        <v>0.42301834</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3245799224565752</v>
+        <v>0.3245798880247736</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>41.61873757839203</v>
+        <v>41.61871373653412</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9733,19 +9733,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1325.013671875</v>
+        <v>1324.9653</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28.21435546875</v>
+        <v>28.213358</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>84.9791259765625</v>
+        <v>84.97373</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>36.40073724356417</v>
+        <v>36.40007324211381</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>186.4481925964355</v>
+        <v>186.4820003509521</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9763,19 +9763,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>3148.453857421875</v>
+        <v>3177.1873</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>42.57356262207031</v>
+        <v>42.76254</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>125.6710510253906</v>
+        <v>126.00015</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>56.11108497812064</v>
+        <v>56.36654376364915</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>194.1284894943237</v>
+        <v>193.8958168029785</v>
       </c>
     </row>
   </sheetData>
@@ -10069,23 +10069,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8367088555064947</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5052320471069482</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6841474433915881</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9147179103453122</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>23.97553499016742</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -10099,23 +10099,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.774834050773481</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.489673810659532</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6588926423717774</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.8802465852097814</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>23.50777126099691</v>
+        <v>15.8342721855699</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -10193,23 +10193,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.450042462277611</v>
+        <v>6.884779375499732</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.622319007389794</v>
+        <v>2.570848444532711</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.094643276102434</v>
+        <v>1.03931770497611</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.729476591267566</v>
+        <v>2.623886311466206</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>182.2661389747153</v>
+        <v>178.3933488824057</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -10223,23 +10223,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.6696374856412776</v>
+        <v>6.952450904074703</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3954921153748726</v>
+        <v>2.584035521342309</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.6134259180980985</v>
+        <v>1.033347064638455</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.8183138063367119</v>
+        <v>2.636750064771916</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>20.12195965359852</v>
+        <v>180.0656508964671</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -10771,23 +10771,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7838252240448454</v>
+        <v>0.3380463467706806</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4196289723706074</v>
+        <v>0.4506306096458812</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6487996907303354</v>
+        <v>0.2310118449554346</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8853390446856195</v>
+        <v>0.5814175322181819</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>20.69911166108254</v>
+        <v>21.0004829824022</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -10801,23 +10801,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.7301891364785598</v>
+        <v>0.6801360562277184</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.4138441693008132</v>
+        <v>0.5725634804097868</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6230405268395754</v>
+        <v>0.3077561596611977</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8545110511155253</v>
+        <v>0.8247036172030037</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>20.67678108705141</v>
+        <v>27.11549595899288</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -10919,16 +10919,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.571300745010376</v>
+        <v>0.57130057</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5358132123947144</v>
+        <v>0.5358133</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3339840471744537</v>
+        <v>0.33398402</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7558443920612072</v>
+        <v>0.7558442737736667</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>22.59159088134766</v>
@@ -10949,13 +10949,13 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2857761681079865</v>
+        <v>0.28577617</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4556985795497894</v>
+        <v>0.45569852</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2331823706626892</v>
+        <v>0.23318237</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.5345803663697223</v>
@@ -10981,19 +10981,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.13920658826828</v>
+        <v>0.13912266</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2641536295413971</v>
+        <v>0.26410407</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09358914196491241</v>
+        <v>0.09357102</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3731039912253419</v>
+        <v>0.3729915078502944</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.685008227825165</v>
+        <v>9.682922065258026</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11011,19 +11011,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4293906092643738</v>
+        <v>0.42939076</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4423555731773376</v>
+        <v>0.44235557</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1554003208875656</v>
+        <v>0.15540035</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6552790316074319</v>
+        <v>0.6552791453083073</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>18.7837153673172</v>
+        <v>18.78371685743332</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -11043,19 +11043,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.197016716003418</v>
+        <v>1.1962502</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9540724754333496</v>
+        <v>0.9536004</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3841162919998169</v>
+        <v>0.38399163</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.094082591033884</v>
+        <v>1.093732234265593</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>45.8445131778717</v>
+        <v>45.81847488880157</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11073,13 +11073,13 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>7.547619342803955</v>
+        <v>7.5476193</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>2.686165571212769</v>
+        <v>2.6861656</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.03415310382843</v>
+        <v>1.0341531</v>
       </c>
       <c r="O24" s="8" t="n">
         <v>2.747293093720427</v>
@@ -11383,19 +11383,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8105062543808967</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4986723995204913</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6866979874750219</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9002812085014863</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>24.00838771843201</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -11413,19 +11413,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.8105062543808967</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.4986723995204913</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6866979874750219</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.9002812085014863</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>24.00838771843201</v>
+        <v>17.07852875592023</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -11503,23 +11503,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.290370478653911</v>
+        <v>7.108288567844489</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.392876197669609</v>
+        <v>2.612764684077718</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9909970115908061</v>
+        <v>1.070276557516331</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.508061099465863</v>
+        <v>2.666137387278549</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>166.037078726758</v>
+        <v>181.7882673081533</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -11533,23 +11533,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.696287447439532</v>
+        <v>63.8270825009285</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4171189242926747</v>
+        <v>5.041674962643677</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.6526765062794448</v>
+        <v>2.353516136615603</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.8344384024237691</v>
+        <v>7.989185346512403</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>21.27862373304968</v>
+        <v>86.85051811320743</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -12081,23 +12081,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7285889336599365</v>
+        <v>0.2416837414766009</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.392702978739525</v>
+        <v>0.3759507121976602</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6557150839737985</v>
+        <v>0.1915228757863217</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8535742109857446</v>
+        <v>0.4916134065265114</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>20.01337164148628</v>
+        <v>17.15229325611122</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -12111,23 +12111,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.7749567097990572</v>
+        <v>0.3245197129641901</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.4076899990831176</v>
+        <v>0.4589365211724784</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6709915342685233</v>
+        <v>0.2324436045904128</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8803162555576588</v>
+        <v>0.5696663172105142</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>20.51513743307073</v>
+        <v>20.89050488180284</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -12229,13 +12229,13 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4820704758167267</v>
+        <v>0.48207048</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4962178766727448</v>
+        <v>0.49621782</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.313983142375946</v>
+        <v>0.31398314</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.6943129523613445</v>
@@ -12259,19 +12259,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.316700667142868</v>
+        <v>0.3167007</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3439160883426666</v>
+        <v>0.3439164</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.265061616897583</v>
+        <v>0.26506174</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5627616432761459</v>
+        <v>0.5627616697547821</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>15.63764661550522</v>
+        <v>15.63765704631805</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12291,19 +12291,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.528822660446167</v>
+        <v>0.5286061</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5217744708061218</v>
+        <v>0.52185583</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1839940696954727</v>
+        <v>0.18402696</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7272019392480792</v>
+        <v>0.7270530357351505</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>21.92735821008682</v>
+        <v>21.92769944667816</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -12321,19 +12321,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4441098868846893</v>
+        <v>0.4441105</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.5200308561325073</v>
+        <v>0.5200312</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1876197457313538</v>
+        <v>0.18761986</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6664157012591235</v>
+        <v>0.6664161708223019</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>20.51021903753281</v>
+        <v>20.51022499799728</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12353,19 +12353,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8277913928031921</v>
+        <v>0.827853</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7608214020729065</v>
+        <v>0.76085943</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3554955422878265</v>
+        <v>0.35551223</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9098304198053569</v>
+        <v>0.909864288784811</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>35.86715757846832</v>
+        <v>35.86915135383606</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12383,19 +12383,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>268.6487731933594</v>
+        <v>268.6388</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>13.34778308868408</v>
+        <v>13.347452</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>5.839217185974121</v>
+        <v>5.8389144</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>16.39050863131951</v>
+        <v>16.39020420694363</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>158.3015918731689</v>
+        <v>158.3016872406006</v>
       </c>
     </row>
   </sheetData>
@@ -12689,23 +12689,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7779080174477735</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4197054894321403</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3760687273524595</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8819909395497062</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.08222668241814</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -12723,19 +12723,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.808111189700239</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.4943536064078694</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.4153011710430879</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.8989500485011606</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>23.4394738819784</v>
+        <v>18.98306486779321</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -12813,23 +12813,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7189341662098242</v>
+        <v>9.867590635785632</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4360592551194104</v>
+        <v>2.452388286569004</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3790469678521308</v>
+        <v>1.079055075143314</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8478998562388275</v>
+        <v>3.141272136537303</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>21.68576075189157</v>
+        <v>119.1892429523138</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -12843,23 +12843,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.6108000192615994</v>
+        <v>7.10185148302782</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.372575974086114</v>
+        <v>2.595132910501396</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3397662594632034</v>
+        <v>1.07415511856789</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.7815369596260944</v>
+        <v>2.664929920847417</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>19.54489538743037</v>
+        <v>183.6799360545282</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -13391,23 +13391,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8658000140161828</v>
+        <v>0.4541209440616555</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4698649912530311</v>
+        <v>0.4615117618749886</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4108135311917259</v>
+        <v>0.2513725404194787</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9304837526879138</v>
+        <v>0.6738849635224513</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>22.96978672294506</v>
+        <v>22.42758778586919</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -13425,19 +13425,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.7249752591475657</v>
+        <v>0.4706457685753205</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.4266128608330906</v>
+        <v>0.4784410005513976</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3797283616154157</v>
+        <v>0.254906527544578</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8514547898435745</v>
+        <v>0.6860362735127936</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>21.20117539146921</v>
+        <v>23.29389881664802</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -13539,16 +13539,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4175769686698914</v>
+        <v>0.41757703</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4836615324020386</v>
+        <v>0.48366156</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3398835361003876</v>
+        <v>0.3398835</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.6462019565661276</v>
+        <v>0.6462020026853338</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>22.7577269077301</v>
@@ -13569,19 +13569,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3840838074684143</v>
+        <v>0.38408393</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3840076625347137</v>
+        <v>0.38400766</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3435298204421997</v>
+        <v>0.34352988</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.6197449535642984</v>
+        <v>0.6197450497403783</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>18.25764775276184</v>
+        <v>18.25764924287796</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13601,13 +13601,13 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5724356770515442</v>
+        <v>0.5724357</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5987525582313538</v>
+        <v>0.59875256</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2483863234519958</v>
+        <v>0.24838634</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0.7565947905263055</v>
@@ -13631,13 +13631,13 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.5176777243614197</v>
+        <v>0.5176777</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.598638117313385</v>
+        <v>0.5986381</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2323539704084396</v>
+        <v>0.23235399</v>
       </c>
       <c r="O23" s="8" t="n">
         <v>0.719498244863335</v>
@@ -13663,19 +13663,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9189282655715942</v>
+        <v>0.9189298</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7354533076286316</v>
+        <v>0.7354433</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4856954216957092</v>
+        <v>0.48569843</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9586074616711442</v>
+        <v>0.9586082699895502</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>33.68439674377441</v>
+        <v>33.68372321128845</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13693,19 +13693,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.3788593411445618</v>
+        <v>0.3792227</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4359961152076721</v>
+        <v>0.43399227</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3333852887153625</v>
+        <v>0.3332495</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.6155155084517057</v>
+        <v>0.6158105967414921</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>20.92681229114532</v>
+        <v>20.83557546138763</v>
       </c>
     </row>
   </sheetData>
@@ -13967,19 +13967,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.174112410629967</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.08656660991536</v>
+        <v>31.77616228482158</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -14055,19 +14055,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05555630363603681</v>
+        <v>0.0412727943323113</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1839551167955749</v>
+        <v>0.151632246127096</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3553289331870787</v>
+        <v>0.4586198743480485</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2357038473085173</v>
+        <v>0.2031570681327906</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>28.6847997657907</v>
+        <v>27.91947022062609</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -14485,23 +14485,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06730096242724515</v>
+        <v>0.043365103599958</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2031943800450004</v>
+        <v>0.1497746434458719</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4061831024928168</v>
+        <v>0.3153733017273239</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2594242903570234</v>
+        <v>0.2082428956770388</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>31.47303009618154</v>
+        <v>26.31437880579593</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -14615,19 +14615,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04066004976630211</v>
+        <v>0.040660053</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1526985019445419</v>
+        <v>0.15269852</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5051923990249634</v>
+        <v>0.50519234</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2016433727309234</v>
+        <v>0.2016433819682471</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>28.2359778881073</v>
+        <v>28.23597490787506</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -14659,19 +14659,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06051249429583549</v>
+        <v>0.060512505</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2005914747714996</v>
+        <v>0.20059152</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2636640965938568</v>
+        <v>0.26366422</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2459928744818343</v>
+        <v>0.245992897197676</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>30.72093427181244</v>
+        <v>30.72094321250916</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -14703,19 +14703,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0393000952899456</v>
+        <v>0.039288357</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1305861324071884</v>
+        <v>0.13014315</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6287288665771484</v>
+        <v>0.6285528</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1982425163529398</v>
+        <v>0.1982129080060508</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>25.1789778470993</v>
+        <v>25.08702576160431</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -15025,19 +15025,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -15055,19 +15055,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -15145,23 +15145,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04776183910721703</v>
+        <v>0.0496646991336046</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1621466999667142</v>
+        <v>0.1662451953660011</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4592999029195793</v>
+        <v>0.5901428605435913</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.218544821735078</v>
+        <v>0.2228557810190363</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>28.73296935631654</v>
+        <v>31.34229283863318</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -15175,23 +15175,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.04779850569023182</v>
+        <v>0.049700394736372</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1626899449659598</v>
+        <v>0.1662971817868937</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.4584567315039134</v>
+        <v>0.5888875022391818</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2186286936571497</v>
+        <v>0.2229358534116306</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>28.83039545621374</v>
+        <v>31.36187800398317</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -15723,23 +15723,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0449307304163503</v>
+        <v>0.0460895833122425</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1612265662591772</v>
+        <v>0.1742115757190915</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4563562924082065</v>
+        <v>0.6091650265083326</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.211968701501779</v>
+        <v>0.214684846489552</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>29.23524503427764</v>
+        <v>33.07213569351754</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -15753,23 +15753,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.043804198076513</v>
+        <v>0.0442893515195091</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1603492280225398</v>
+        <v>0.1709096928583842</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.448736016427267</v>
+        <v>0.6060473291026419</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2092945247169954</v>
+        <v>0.2104503540493794</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>29.27696703236593</v>
+        <v>32.55348245429162</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -15871,19 +15871,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0481509268283844</v>
+        <v>0.048150927</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1551932394504547</v>
+        <v>0.15519324</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7757720947265625</v>
+        <v>0.77577204</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.219433194454222</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>28.93929481506348</v>
+        <v>28.93929779529572</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15901,13 +15901,13 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0558740422129631</v>
+        <v>0.055874042</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.151338666677475</v>
+        <v>0.15133865</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.8471425175666809</v>
+        <v>0.8471425</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.236376907105925</v>
@@ -15933,16 +15933,16 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03729450330138206</v>
+        <v>0.0372945</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1491930782794952</v>
+        <v>0.14919308</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2510319948196411</v>
+        <v>0.25103197</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1931178482206709</v>
+        <v>0.1931178385755489</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>25.02102553844452</v>
@@ -15963,16 +15963,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02573696337640285</v>
+        <v>0.025736963</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1258159130811691</v>
+        <v>0.12581591</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2253385037183762</v>
+        <v>0.22533852</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1604274395993493</v>
+        <v>0.1604274395993492</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>21.241195499897</v>
@@ -15995,19 +15995,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05521683022379875</v>
+        <v>0.055223513</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1562973409891129</v>
+        <v>0.15629306</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8420504331588745</v>
+        <v>0.8421209</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2349826168545213</v>
+        <v>0.2349968369884884</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>29.10189628601074</v>
+        <v>29.10031974315644</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -16025,19 +16025,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04752442985773087</v>
+        <v>0.04748169</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1803267598152161</v>
+        <v>0.18012702</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.6742439270019531</v>
+        <v>0.6741727</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2180009859099974</v>
+        <v>0.2179029361943905</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>34.62585508823395</v>
+        <v>34.58654880523682</v>
       </c>
     </row>
   </sheetData>
@@ -16299,19 +16299,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05333434849253286</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1836392004221472</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5090276832651499</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2309423055495308</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.73537468940822</v>
+        <v>33.70231028308675</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -16383,23 +16383,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1057370061898916</v>
+        <v>0.03312460682578</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2696821760875794</v>
+        <v>0.13809651565764</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.538391633366137</v>
+        <v>0.4608073815385111</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3251722715575417</v>
+        <v>0.1820016670961562</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>45.88372260589878</v>
+        <v>26.34067428501583</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -16821,19 +16821,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05223583916217416</v>
+        <v>0.0450251904801617</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.186458700911878</v>
+        <v>0.1735785135984474</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.479763906539516</v>
+        <v>0.5441522211132208</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2285516115939114</v>
+        <v>0.2121914005801408</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>31.55256361757431</v>
+        <v>32.16048002355122</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -16947,19 +16947,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06605877727270126</v>
+        <v>0.06605878</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1955767422914505</v>
+        <v>0.19557676</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8449411988258362</v>
+        <v>0.8449413</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2570190212274205</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>33.57179760932922</v>
+        <v>33.5718035697937</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -16991,19 +16991,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1146363690495491</v>
+        <v>0.11463649</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2840272486209869</v>
+        <v>0.28402734</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4717292189598083</v>
+        <v>0.4717295</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3385799300749368</v>
+        <v>0.3385801061179446</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>59.92196202278137</v>
+        <v>59.92200970649719</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -17035,19 +17035,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2100329846143723</v>
+        <v>0.22109212</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3804676532745361</v>
+        <v>0.3897741</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.450546145439148</v>
+        <v>1.492123</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4582935572472869</v>
+        <v>0.4702043383604253</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>50.47252774238586</v>
+        <v>51.08960270881653</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -17321,19 +17321,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -17405,23 +17405,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06243355814119322</v>
+        <v>2.390076625089054e+16</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1983624501263535</v>
+        <v>113479334.5684571</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6054880177791772</v>
+        <v>250988378.0821996</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2498670809474374</v>
+        <v>154598726.5500287</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>34.33441515977882</v>
+        <v>199.9999948687881</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -17843,19 +17843,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05432758153673231</v>
+        <v>0.0496173356805046</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1741576510279473</v>
+        <v>0.1720668393169165</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5815010727100183</v>
+        <v>0.6767846521496024</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2330827782928896</v>
+        <v>0.2227494908647485</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>30.36187374525458</v>
+        <v>32.33879968685676</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -17969,16 +17969,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.213518887758255</v>
+        <v>0.2135189</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4105143845081329</v>
+        <v>0.41051444</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.302004098892212</v>
+        <v>1.3020041</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.462081040249711</v>
+        <v>0.4620810563736802</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>55.18972277641296</v>
@@ -18013,19 +18013,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1297742575407028</v>
+        <v>0.12975991</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3025805056095123</v>
+        <v>0.30255893</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6207222938537598</v>
+        <v>0.6206597</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3602419430614692</v>
+        <v>0.3602220255932071</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>53.85691523551941</v>
+        <v>53.85555624961853</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18057,19 +18057,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1034039631485939</v>
+        <v>0.10322308</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.244739830493927</v>
+        <v>0.24446677</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.111990332603455</v>
+        <v>1.1109955</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.321564866160148</v>
+        <v>0.3212834853410019</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>39.02922570705414</v>
+        <v>39.00271356105805</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -18343,19 +18343,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -18431,19 +18431,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2515516030492563</v>
+        <v>0.3889481982055642</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4104997605991826</v>
+        <v>0.4982391482793499</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1668437655571289</v>
+        <v>0.2834023089867421</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5015492030192614</v>
+        <v>0.6236571158942742</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.29610686865247</v>
+        <v>22.11002401679389</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -18861,23 +18861,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.106783665801522</v>
+        <v>0.5340323427828342</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7112048126102384</v>
+        <v>0.5528687498502107</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2762718980250087</v>
+        <v>0.2792698639503548</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.052037863292725</v>
+        <v>0.7307751656856123</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>37.5559550709001</v>
+        <v>26.39663946800294</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -18991,13 +18991,13 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8008473515510559</v>
+        <v>0.80084735</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6823488473892212</v>
+        <v>0.6823489</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4376510977745056</v>
+        <v>0.43765122</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.8949007495532988</v>
@@ -19035,19 +19035,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2398152053356171</v>
+        <v>0.23981528</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4462637007236481</v>
+        <v>0.4462638</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1569790542125702</v>
+        <v>0.15697908</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4897093069726336</v>
+        <v>0.4897093830440898</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.30068027973175</v>
+        <v>17.30068624019623</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -19079,19 +19079,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.57387775182724</v>
+        <v>0.6048355</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6003308296203613</v>
+        <v>0.62165135</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.347428023815155</v>
+        <v>0.3572663</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.757547194455395</v>
+        <v>0.7777117141035657</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.73775553703308</v>
+        <v>27.66536176204681</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -19365,19 +19365,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -19453,19 +19453,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3068762106765008</v>
+        <v>0.401266052684215</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4391288284814064</v>
+        <v>0.4964792952415521</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2239336256605062</v>
+        <v>0.3054738245239467</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5539640878942432</v>
+        <v>0.6334556438174777</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.64044659404312</v>
+        <v>22.39510616127086</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -19887,19 +19887,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5967008592236072</v>
+        <v>0.7150412055074186</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6303705400002045</v>
+        <v>0.5170963425208805</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2927582884386521</v>
+        <v>0.2624122277041892</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7724641475328206</v>
+        <v>0.845601091240674</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.11409916742052</v>
+        <v>26.83873459751104</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -20013,19 +20013,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.400596022605896</v>
+        <v>0.4005961</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3486333191394806</v>
+        <v>0.34863326</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3033495843410492</v>
+        <v>0.3033496</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.632926553879592</v>
+        <v>0.6329266245094001</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>16.04262143373489</v>
+        <v>16.04262441396713</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -20057,19 +20057,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1373793631792068</v>
+        <v>0.1373794</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2862596809864044</v>
+        <v>0.28625974</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1076383888721466</v>
+        <v>0.1076384</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.370647222003898</v>
+        <v>0.3706472622069792</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.8183279633522</v>
+        <v>10.81832945346832</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -20101,19 +20101,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9904811382293701</v>
+        <v>0.99092233</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7877081036567688</v>
+        <v>0.7881329</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5142495036125183</v>
+        <v>0.5144729</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9952291887949077</v>
+        <v>0.9954508183782852</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>29.41279411315918</v>
+        <v>29.42507266998291</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -20387,19 +20387,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -20475,19 +20475,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3785366172026525</v>
+        <v>0.4480543371657899</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4767673840220167</v>
+        <v>0.5209803890445156</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.280920060553132</v>
+        <v>0.358736427584775</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6152532951578988</v>
+        <v>0.6693686108309754</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>21.02052919977605</v>
+        <v>24.10133698986853</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -20905,23 +20905,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.775691767707401</v>
+        <v>1.420744049275022</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7203011713133327</v>
+        <v>0.9938590605465464</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3227411878593594</v>
+        <v>0.4747126051305547</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8807336531025717</v>
+        <v>1.19194968403663</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>34.23877572022088</v>
+        <v>52.61117821547487</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -21035,19 +21035,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4273750483989716</v>
+        <v>0.42737505</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4833738207817078</v>
+        <v>0.48337388</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3596430420875549</v>
+        <v>0.35964307</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.6537392816704314</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>22.43610322475433</v>
+        <v>22.43610620498657</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -21079,19 +21079,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2953134775161743</v>
+        <v>0.2953135</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4224905967712402</v>
+        <v>0.42249063</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.178301990032196</v>
+        <v>0.178302</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5434275273816871</v>
+        <v>0.5434275548023827</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.1890065073967</v>
+        <v>17.18900799751282</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -21123,19 +21123,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3767825067043304</v>
+        <v>0.37680587</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.409204512834549</v>
+        <v>0.4092098</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3302813768386841</v>
+        <v>0.33029655</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6138261209042268</v>
+        <v>0.6138451528888066</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>19.55636739730835</v>
+        <v>19.55645382404328</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -21441,23 +21441,23 @@
       </c>
       <c r="C9" s="13" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06073650231656759</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1490697384818899</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3481573517333942</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2464477679277449</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.75337638647806</v>
+        <v>33.70231028308675</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -21471,23 +21471,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06031308885169412</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1476585384052541</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.338162448325363</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2455872326724134</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>29.80044169379925</v>
+        <v>33.70231028308675</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -21569,19 +21569,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03644721702500474</v>
+        <v>0.0429119691280327</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1382052281142963</v>
+        <v>0.1520615101220244</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3495881394861247</v>
+        <v>0.5050169375754375</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1909115424090559</v>
+        <v>0.2071520435043612</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>23.81267042635567</v>
+        <v>28.39065525614441</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -21599,19 +21599,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.03654656493557721</v>
+        <v>0.0430502505841302</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1379192238288817</v>
+        <v>0.1524463685824269</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3483945148999618</v>
+        <v>0.5049980948840647</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.191171558908686</v>
+        <v>0.2074855430725963</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>23.76695476145137</v>
+        <v>28.46585189247096</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -22143,23 +22143,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0353081469286318</v>
+        <v>0.0400639814018617</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1407582796763494</v>
+        <v>0.1595320465019968</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3348399489631766</v>
+        <v>0.5112220501872504</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.187904621892682</v>
+        <v>0.2001598895929495</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>24.7013219874438</v>
+        <v>30.089718562035</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -22173,23 +22173,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.04778765120127219</v>
+        <v>0.0394370388622547</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1657700194354128</v>
+        <v>0.1570366478550899</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.392624539054493</v>
+        <v>0.5073129126300649</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.218603868221201</v>
+        <v>0.1985876100421542</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>28.34636118335704</v>
+        <v>29.65310756675709</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -22291,19 +22291,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03570396453142166</v>
+        <v>0.03570397</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1223471537232399</v>
+        <v>0.12234717</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5942074060440063</v>
+        <v>0.59420747</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1889549272483299</v>
+        <v>0.1889549371059458</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>23.84132593870163</v>
+        <v>23.84132295846939</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22321,19 +22321,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05516336485743523</v>
+        <v>0.055163354</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.198401004076004</v>
+        <v>0.19840093</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6051657795906067</v>
+        <v>0.6051659</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2348688247882959</v>
+        <v>0.2348688009965656</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>36.05773448944092</v>
+        <v>36.05771958827973</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -22353,16 +22353,16 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01274399273097515</v>
+        <v>0.012743992</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08526406437158585</v>
+        <v>0.08526406</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.151139423251152</v>
+        <v>0.15113942</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1128892941379968</v>
+        <v>0.1128892900130591</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>13.11209201812744</v>
@@ -22383,19 +22383,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02344955131411552</v>
+        <v>0.023449752</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1196373403072357</v>
+        <v>0.11963583</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1676629036664963</v>
+        <v>0.16765901</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.153132463292783</v>
+        <v>0.153133120126874</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>17.33722537755966</v>
+        <v>17.33691394329071</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -22415,19 +22415,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03928867727518082</v>
+        <v>0.039347198</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1490383297204971</v>
+        <v>0.14910702</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5682387948036194</v>
+        <v>0.5680048</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.198213716163087</v>
+        <v>0.1983612811525459</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>28.85887920856476</v>
+        <v>28.88220846652985</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -22445,19 +22445,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.06211905553936958</v>
+        <v>0.062121373</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1949752271175385</v>
+        <v>0.19499864</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.6342914700508118</v>
+        <v>0.634361</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2492369465776886</v>
+        <v>0.2492415949835324</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>35.15320420265198</v>
+        <v>35.15738546848297</v>
       </c>
     </row>
   </sheetData>
@@ -22755,19 +22755,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -22785,19 +22785,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -22879,19 +22879,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2489249843208304</v>
+        <v>0.3742636202005624</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4078405940815966</v>
+        <v>0.4793858338413904</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1660253843217124</v>
+        <v>0.2810555148964345</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4989238261707195</v>
+        <v>0.6117708886507779</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.18622213880596</v>
+        <v>21.23311942641841</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -22909,19 +22909,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2489973760885563</v>
+        <v>0.373906123746884</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.408002048398514</v>
+        <v>0.4790721096871977</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1660678424249697</v>
+        <v>0.2809162416100123</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4989963688129968</v>
+        <v>0.6114786371958418</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>16.1929270675913</v>
+        <v>21.22039343146219</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -23453,23 +23453,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3027164304507336</v>
+        <v>0.1834369437327865</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3739827645760064</v>
+        <v>0.2949245318884951</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1564653957702437</v>
+        <v>0.1168624944543138</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5501967197746035</v>
+        <v>0.4282953930791067</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>16.58529198559777</v>
+        <v>12.85420645422597</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -23483,23 +23483,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.1632745578410544</v>
+        <v>0.2198240129009443</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2959829481600388</v>
+        <v>0.2694126431418243</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1195434905839329</v>
+        <v>0.1005907994684332</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.4040724660763887</v>
+        <v>0.468853935571564</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>12.03987734971684</v>
+        <v>11.60423432555464</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -23601,19 +23601,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4118748605251312</v>
+        <v>0.4118746</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3815428614616394</v>
+        <v>0.3815427</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2963177263736725</v>
+        <v>0.29631764</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.6417747739862726</v>
+        <v>0.6417745650181454</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>16.59601926803589</v>
+        <v>16.59601181745529</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -23631,19 +23631,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.723979115486145</v>
+        <v>0.7239792</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6186524033546448</v>
+        <v>0.61865246</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4126322865486145</v>
+        <v>0.4126323</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8508696230834339</v>
+        <v>0.8508696581091547</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>23.96296560764313</v>
+        <v>23.96296858787537</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -23663,19 +23663,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1088514104485512</v>
+        <v>0.10885139</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2486280500888824</v>
+        <v>0.24862798</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08516404777765274</v>
+        <v>0.085164025</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.329926371253574</v>
+        <v>0.329926337379739</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.040077030658722</v>
+        <v>9.040074050426483</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -23693,19 +23693,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1042371243238449</v>
+        <v>0.1042371</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2355533540248871</v>
+        <v>0.23555334</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07933466136455536</v>
+        <v>0.07933464</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3228577462658205</v>
+        <v>0.322857711650354</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>8.543542772531509</v>
+        <v>8.54354053735733</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -23725,19 +23725,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.531805694103241</v>
+        <v>0.5310505</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6665797829627991</v>
+        <v>0.66593504</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3370180726051331</v>
+        <v>0.33680686</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7292500902319046</v>
+        <v>0.7287321203665561</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>29.53368425369263</v>
+        <v>29.50412034988404</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -23755,19 +23755,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.5034467577934265</v>
+        <v>0.50256777</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.418156236410141</v>
+        <v>0.41740048</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3241223394870758</v>
+        <v>0.3237395</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.7095398211470774</v>
+        <v>0.708920142256463</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>17.79110729694366</v>
+        <v>17.76703745126724</v>
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
@@ -24066,19 +24066,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -24096,19 +24096,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -24190,19 +24190,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3731308125438813</v>
+        <v>0.4480304256504311</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4732609522615703</v>
+        <v>0.5243480019614972</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2811322087660417</v>
+        <v>0.3613101238765778</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6108443439566918</v>
+        <v>0.6693507493462835</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>20.83577308931018</v>
+        <v>24.1958319336474</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -24220,19 +24220,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.373009551065023</v>
+        <v>0.4483307603878514</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4732990771047635</v>
+        <v>0.5244750598048281</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2810763101477789</v>
+        <v>0.3614808077247454</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6107450786252994</v>
+        <v>0.6695750595622953</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>20.83799293110431</v>
+        <v>24.20001063581444</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -24764,23 +24764,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2857422179922576</v>
+        <v>0.2809486421887939</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3846431671502714</v>
+        <v>0.3315564827313751</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.226483186736463</v>
+        <v>0.2551120876758512</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5345486114398368</v>
+        <v>0.530045886870933</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.71382329024589</v>
+        <v>16.78063671959204</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -24794,23 +24794,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.2048475346239521</v>
+        <v>0.3044890839732094</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2986336142128798</v>
+        <v>0.3479802402121419</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1975508633976002</v>
+        <v>0.2716931904386767</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.4526008557481438</v>
+        <v>0.5518052953471989</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>14.13478276923502</v>
+        <v>17.46980937506366</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -24912,19 +24912,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8457175493240356</v>
+        <v>0.8457171999999999</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.654028058052063</v>
+        <v>0.6540278</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5190252065658569</v>
+        <v>0.519025</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9196290280999375</v>
+        <v>0.9196288336585402</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>26.51287615299225</v>
+        <v>26.51286423206329</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -24942,19 +24942,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.9201918840408325</v>
+        <v>0.92019224</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.7176352143287659</v>
+        <v>0.71763533</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5499340295791626</v>
+        <v>0.54993415</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.95926632591832</v>
+        <v>0.9592665123252772</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>28.3368319272995</v>
+        <v>28.33683788776398</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -24974,19 +24974,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3308990001678467</v>
+        <v>0.3308991</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5024480819702148</v>
+        <v>0.50244814</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1948721408843994</v>
+        <v>0.19487219</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5752382116722138</v>
+        <v>0.5752382893852024</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>20.54880857467651</v>
+        <v>20.54881304502487</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -25004,19 +25004,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4185915291309357</v>
+        <v>0.41858754</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.5975778102874756</v>
+        <v>0.5975788</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.230866476893425</v>
+        <v>0.23086722</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6469864984147162</v>
+        <v>0.6469834121673721</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>24.71518516540527</v>
+        <v>24.71524029970169</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -25036,19 +25036,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7683531045913696</v>
+        <v>0.7683536399999999</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5802994966506958</v>
+        <v>0.5802993</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4852923154830933</v>
+        <v>0.48529252</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8765575306797436</v>
+        <v>0.8765578366731842</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.25035983324051</v>
+        <v>24.25035238265991</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -25066,19 +25066,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4351840615272522</v>
+        <v>0.4350915</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.5067529678344727</v>
+        <v>0.50661516</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3657011091709137</v>
+        <v>0.36568654</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.6596848198399385</v>
+        <v>0.6596146568367899</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>23.41037839651108</v>
+        <v>23.40449392795563</v>
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
@@ -25377,19 +25377,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -25407,19 +25407,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -25501,19 +25501,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3095104884542894</v>
+        <v>0.3988223998224166</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4383072569128164</v>
+        <v>0.4961784508009846</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2266477596239752</v>
+        <v>0.3075720042104284</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5563366682632823</v>
+        <v>0.6315238711421893</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.54810848087062</v>
+        <v>22.32171823648476</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -25531,19 +25531,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3095339614824059</v>
+        <v>0.3986191132565647</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4383760602167184</v>
+        <v>0.4959496500285825</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2266832816625303</v>
+        <v>0.3075012770005446</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5563577639274983</v>
+        <v>0.6313629013939326</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>18.55094295425372</v>
+        <v>22.31206679278145</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -26075,53 +26075,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.2276595836547021</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3245712952593276</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1914996823158387</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.4771368605072366</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>15.55107660034248</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.3125281693014044</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.3891029623217624</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.1974774613896546</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.5590421891963114</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>17.37977034082082</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.2345847622281019</v>
+        <v>0.294564897316868</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3241474079452439</v>
+        <v>0.3230226801674321</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1757960276887504</v>
+        <v>0.2340381721906412</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.4843395113224833</v>
+        <v>0.5427383322715174</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>13.96522673335688</v>
+        <v>15.86104681162256</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -26223,16 +26223,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7348273992538452</v>
+        <v>0.73482746</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.810434877872467</v>
+        <v>0.8104348</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3906250894069672</v>
+        <v>0.3906251</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8572207412643754</v>
+        <v>0.8572207760305918</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>36.91869974136353</v>
@@ -26253,19 +26253,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.6812784075737</v>
+        <v>0.6812784</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.572190523147583</v>
+        <v>0.5721905</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.419119119644165</v>
+        <v>0.41911912</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.8253959095935114</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>23.20399284362793</v>
+        <v>23.20399731397629</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26285,19 +26285,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.162399485707283</v>
+        <v>0.16239947</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3087554275989532</v>
+        <v>0.30875543</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1109126210212708</v>
+        <v>0.110912606</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4029881954937179</v>
+        <v>0.4029881770053829</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>11.86215505003929</v>
+        <v>11.86215430498123</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -26315,19 +26315,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1302960216999054</v>
+        <v>0.13028832</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2642911076545715</v>
+        <v>0.26427913</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.09374089539051056</v>
+        <v>0.09373593</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3609654023585992</v>
+        <v>0.360954730956069</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>9.986975789070129</v>
+        <v>9.986545145511627</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -26347,19 +26347,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4431808292865753</v>
+        <v>0.4431798</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3738063871860504</v>
+        <v>0.37380564</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3176628053188324</v>
+        <v>0.31766236</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6657182807213389</v>
+        <v>0.6657174972954307</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.91865026950836</v>
+        <v>16.91862493753433</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -26377,19 +26377,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.7951695919036865</v>
+        <v>0.7951741</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.6344864368438721</v>
+        <v>0.6344907</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4534876048564911</v>
+        <v>0.45348936</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.8917228223521514</v>
+        <v>0.8917253623491312</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>24.9785453081131</v>
+        <v>24.97867345809937</v>
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
@@ -26690,19 +26690,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.174112410629967</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.08656660991536</v>
+        <v>31.77616228482158</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -26720,19 +26720,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.174112410629967</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.08656660991536</v>
+        <v>31.77616228482158</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -26810,23 +26810,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03147573631998189</v>
+        <v>0.0582558387631948</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1393414626473896</v>
+        <v>0.1895116591273225</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2545189819856257</v>
+        <v>0.6024393460258641</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1774140251501608</v>
+        <v>0.2413624634511233</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>21.90508111528566</v>
+        <v>33.36981569508957</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -26840,23 +26840,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.03120996851378005</v>
+        <v>0.0582480905611942</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.13931078138972</v>
+        <v>0.1895731406570679</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.253010443455173</v>
+        <v>0.6023049589514614</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1766634328710389</v>
+        <v>0.2413464119501142</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>21.86410402224818</v>
+        <v>33.38229535052148</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -27392,19 +27392,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05332242868306164</v>
+        <v>0.0565160194626576</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1816258364521582</v>
+        <v>0.1812522808386558</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3453322876362733</v>
+        <v>0.6091990875287878</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.23091649720854</v>
+        <v>0.2377309812848498</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.3402665347294</v>
+        <v>31.85706158021362</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -27418,23 +27418,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05332242868306164</v>
+        <v>0.1305236037422026</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1816258364521582</v>
+        <v>0.3048169082039544</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3453322876362733</v>
+        <v>0.5591010953884633</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.23091649720854</v>
+        <v>0.3612805056216052</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>28.3402665347294</v>
+        <v>61.98081717312704</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05651666969060898</v>
+        <v>0.05651666</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1733042150735855</v>
+        <v>0.1733042</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7019678950309753</v>
+        <v>0.70196784</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2377323488518316</v>
+        <v>0.2377323253466765</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>29.99550998210907</v>
+        <v>29.99550700187683</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -27566,16 +27566,16 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05715785920619965</v>
+        <v>0.05715785</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1859547942876816</v>
+        <v>0.1859548</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5908882617950439</v>
+        <v>0.5908883</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2390770988744</v>
+        <v>0.2390770832924374</v>
       </c>
       <c r="P22" s="8" t="n">
         <v>32.9062283039093</v>
@@ -27598,19 +27598,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0345103032886982</v>
+        <v>0.03451127</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.135912612080574</v>
+        <v>0.13591585</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1680325120687485</v>
+        <v>0.16803701</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1857694896604343</v>
+        <v>0.1857720865439302</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.83553862571716</v>
+        <v>18.83605271577835</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -27628,19 +27628,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03017366491258144</v>
+        <v>0.030173669</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1447187960147858</v>
+        <v>0.14471878</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1991762220859528</v>
+        <v>0.19917622</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1737056847445743</v>
+        <v>0.1737056954675687</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>20.28217315673828</v>
+        <v>20.28217017650604</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27660,19 +27660,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05235326290130615</v>
+        <v>0.052354127</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1799812316894531</v>
+        <v>0.17998601</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5904961824417114</v>
+        <v>0.59046745</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.22880835408985</v>
+        <v>0.228810242709227</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>31.86464309692383</v>
+        <v>31.86565041542053</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27690,19 +27690,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04948833212256432</v>
+        <v>0.049210336</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1678213775157928</v>
+        <v>0.16776408</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.6604355573654175</v>
+        <v>0.6572624</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2224597314629421</v>
+        <v>0.2218340281817284</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>29.52407896518707</v>
+        <v>29.53882813453674</v>
       </c>
     </row>
   </sheetData>
@@ -28004,19 +28004,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -28034,19 +28034,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
     </row>
     <row r="10">
@@ -28128,19 +28128,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06300756054960438</v>
+        <v>0.06693724431706841</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2003098699824897</v>
+        <v>0.2078094173882183</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6081251731799507</v>
+        <v>0.7481859194830104</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2510130684837034</v>
+        <v>0.2587223305342399</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>34.66953589894526</v>
+        <v>37.74281319528679</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -28158,19 +28158,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.06300935430109718</v>
+        <v>0.06699417973149149</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.2003131103595605</v>
+        <v>0.2079254299785068</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.6081266897068249</v>
+        <v>0.7483524644028635</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2510166414823869</v>
+        <v>0.2588323390372454</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>34.67006418239204</v>
+        <v>37.76164857355393</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -28702,23 +28702,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06318380208330351</v>
+        <v>0.06659257670098639</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1992639123118889</v>
+        <v>0.2118316330534571</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6904896170836068</v>
+        <v>0.6678426838843867</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2513638838085208</v>
+        <v>0.2580553752607887</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>33.93424957136728</v>
+        <v>38.8660482439006</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -28732,23 +28732,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.0565324723925108</v>
+        <v>0.0681410057201892</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1850495424049102</v>
+        <v>0.20682868158516</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.5988002359341368</v>
+        <v>0.7769866539585445</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2377655828594854</v>
+        <v>0.2610383223210516</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>32.32913813624691</v>
+        <v>37.36491377756943</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -28850,16 +28850,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.08158513903617859</v>
+        <v>0.08158515</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2386994808912277</v>
+        <v>0.2386995</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6974437236785889</v>
+        <v>0.6974437</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2856311240677013</v>
+        <v>0.2856311371100132</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>43.87904107570648</v>
@@ -28880,19 +28880,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.06176647916436195</v>
+        <v>0.061766546</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1913339644670486</v>
+        <v>0.19133407</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.8497315049171448</v>
+        <v>0.8497325</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2485286284603083</v>
+        <v>0.2485287633647005</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>34.36999619007111</v>
+        <v>34.37000811100006</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28912,13 +28912,13 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0513140894472599</v>
+        <v>0.05131409</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1771316379308701</v>
+        <v>0.17713164</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3577482998371124</v>
+        <v>0.3577483</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0.2265261341374542</v>
@@ -28942,16 +28942,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05035325512290001</v>
+        <v>0.05035326</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1768944263458252</v>
+        <v>0.17689443</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.4094440937042236</v>
+        <v>0.4094441</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2243953099396242</v>
+        <v>0.2243953182403552</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>28.27379405498505</v>
@@ -28974,19 +28974,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.067125104367733</v>
+        <v>0.06712928</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2033434510231018</v>
+        <v>0.20335218</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8711474537849426</v>
+        <v>0.8712004</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2590851295766181</v>
+        <v>0.2590931814866367</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>36.02842688560486</v>
+        <v>36.02931201457977</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -29004,19 +29004,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.07003524899482727</v>
+        <v>0.07326187000000001</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2128747254610062</v>
+        <v>0.21780628</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.9048588275909424</v>
+        <v>0.928742</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2646417370613095</v>
+        <v>0.2706693036418002</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>37.11108863353729</v>
+        <v>37.58783042430878</v>
       </c>
     </row>
   </sheetData>
@@ -29316,19 +29316,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05333434849253286</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1836392004221472</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.5090276832651499</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2309423055495308</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.73537468940822</v>
+        <v>33.70231028308675</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -29346,19 +29346,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05333434849253286</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1836392004221472</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.5090276832651499</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2309423055495308</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>30.73537468940822</v>
+        <v>33.70231028308675</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -29440,19 +29440,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05661316758715664</v>
+        <v>0.0602323015430708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.189212711456517</v>
+        <v>0.1958834947595234</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4914705616444063</v>
+        <v>0.6543076647842706</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2379352172066099</v>
+        <v>0.2454226997306298</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>31.76669563628465</v>
+        <v>35.21012635343601</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -29470,19 +29470,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.0565937525489769</v>
+        <v>0.0602252639695274</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1891674783957456</v>
+        <v>0.1959100811866464</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.4914425729420472</v>
+        <v>0.6540802164085752</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.237894414707401</v>
+        <v>0.2454083616536475</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>31.75904272031335</v>
+        <v>35.21687491758703</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -30014,53 +30014,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0724084500469608</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2155614661635065</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.8126589026776921</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2690881826594412</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>36.57174148342153</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.05708941605315767</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.1903011759666142</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.49430443567581</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.2389339156611252</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>31.93584028500944</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.06471071590660772</v>
+        <v>0.0599761533339461</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2107041881438353</v>
+        <v>0.1953359053497145</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4936309428127956</v>
+        <v>0.6775465226497985</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2543830102554173</v>
+        <v>0.2449002926375265</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>35.99578826964828</v>
+        <v>35.0127456031265</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -30162,19 +30162,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06237037107348442</v>
+        <v>0.062370375</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.188041016459465</v>
+        <v>0.18804103</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7877554297447205</v>
+        <v>0.7877555000000001</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2497406075781118</v>
+        <v>0.2497406150364307</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>32.95654356479645</v>
+        <v>32.95654952526093</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -30192,16 +30192,16 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1045940741896629</v>
+        <v>0.10459408</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2595656514167786</v>
+        <v>0.25956565</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.022156238555908</v>
+        <v>1.0221562</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3234100712557711</v>
+        <v>0.3234100827745534</v>
       </c>
       <c r="P22" s="8" t="n">
         <v>40.67309200763702</v>
@@ -30224,19 +30224,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03978920727968216</v>
+        <v>0.03979043</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1674095690250397</v>
+        <v>0.16740867</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.310909628868103</v>
+        <v>0.31091443</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1994723220892617</v>
+        <v>0.1994753848847021</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>24.85218346118927</v>
+        <v>24.85201358795166</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30254,19 +30254,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02645531296730042</v>
+        <v>0.026455324</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.125408723950386</v>
+        <v>0.12540874</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2388419806957245</v>
+        <v>0.23884201</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1626508929188537</v>
+        <v>0.1626509272742436</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>19.17046904563904</v>
+        <v>19.17047202587128</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -30286,19 +30286,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06159048154950142</v>
+        <v>0.061530057</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1916557550430298</v>
+        <v>0.19160998</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.794003427028656</v>
+        <v>0.7936807</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.248174296714026</v>
+        <v>0.2480525293982312</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>33.47828388214111</v>
+        <v>33.4738701581955</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30316,19 +30316,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.08652640879154205</v>
+        <v>0.086447336</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2250932604074478</v>
+        <v>0.2249483</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.9571232199668884</v>
+        <v>0.95668864</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2941537162633545</v>
+        <v>0.2940192779048117</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>36.93916797637939</v>
+        <v>36.92390918731689</v>
       </c>
     </row>
   </sheetData>
